--- a/Robot Facturación Cemento/Data/Dia_Ejecucion.xlsx
+++ b/Robot Facturación Cemento/Data/Dia_Ejecucion.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpaeyuser\Documents\UiPath\Cuentas por cobrar segunda parte\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpaeyuser\Documents\UiPath\Robot Facturación Cemento\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Dia_Ejecucion</t>
   </si>
@@ -32,13 +32,10 @@
     <t>Formato</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
     <t>dd/mm/aaaa</t>
   </si>
   <si>
-    <t>26/07/2022</t>
+    <t>17/08/2022</t>
   </si>
 </sst>
 </file>
@@ -360,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -371,7 +368,7 @@
     <col min="1" max="1" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -379,45 +376,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
     </row>
   </sheetData>

--- a/Robot Facturación Cemento/Data/Dia_Ejecucion.xlsx
+++ b/Robot Facturación Cemento/Data/Dia_Ejecucion.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Dia_Ejecucion</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>17/08/2022</t>
+  </si>
+  <si>
+    <t>22/08/2022</t>
   </si>
 </sst>
 </file>
@@ -360,7 +363,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -385,7 +388,9 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>

--- a/Robot Facturación Cemento/Data/Dia_Ejecucion.xlsx
+++ b/Robot Facturación Cemento/Data/Dia_Ejecucion.xlsx
@@ -38,7 +38,7 @@
     <t>17/08/2022</t>
   </si>
   <si>
-    <t>22/08/2022</t>
+    <t>30/08/2022</t>
   </si>
 </sst>
 </file>

--- a/Robot Facturación Cemento/Data/Dia_Ejecucion.xlsx
+++ b/Robot Facturación Cemento/Data/Dia_Ejecucion.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Dia_Ejecucion</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>30/08/2022</t>
+  </si>
+  <si>
+    <t>22/09/2022</t>
   </si>
 </sst>
 </file>
@@ -363,7 +366,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,7 +396,9 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>

--- a/Robot Facturación Cemento/Data/Dia_Ejecucion.xlsx
+++ b/Robot Facturación Cemento/Data/Dia_Ejecucion.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Dia_Ejecucion</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>22/09/2022</t>
+  </si>
+  <si>
+    <t>25/10/2022</t>
   </si>
 </sst>
 </file>
@@ -366,7 +369,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,7 +404,9 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>

--- a/Robot Facturación Cemento/Data/Dia_Ejecucion.xlsx
+++ b/Robot Facturación Cemento/Data/Dia_Ejecucion.xlsx
@@ -44,7 +44,7 @@
     <t>22/09/2022</t>
   </si>
   <si>
-    <t>25/10/2022</t>
+    <t>26/10/2022</t>
   </si>
 </sst>
 </file>

--- a/Robot Facturación Cemento/Data/Dia_Ejecucion.xlsx
+++ b/Robot Facturación Cemento/Data/Dia_Ejecucion.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Dia_Ejecucion</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>26/10/2022</t>
+  </si>
+  <si>
+    <t>18/11/2022</t>
   </si>
 </sst>
 </file>
@@ -369,7 +372,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,7 +412,9 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
